--- a/az-900-exam-objectives.xlsx
+++ b/az-900-exam-objectives.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim.NEWLAPTOP\Desktop\az900\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E024C8D-5970-4565-BD0E-0579AFE2FD3E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937E865C-0C26-4716-9051-A46FDCA82ABE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,18 +38,6 @@
     <t>Describe the benefits and considerations of using cloud services</t>
   </si>
   <si>
-    <t>understand terms such as High Availability, Scalability, Elasticity, Agility, Fault Tolerance, and Disaster Recovery</t>
-  </si>
-  <si>
-    <t>understand the principles of economies of scale</t>
-  </si>
-  <si>
-    <t>understand the differences between Capital Expenditure (CapEx) and Operational Expenditure (OpEx)</t>
-  </si>
-  <si>
-    <t>understand the consumption-based model</t>
-  </si>
-  <si>
     <t>Describe the differences between Infrastructure-as-a-Service (IaaS), Platform-as-a-Service (PaaS) and Software-as-a-Service (SaaS)</t>
   </si>
   <si>
@@ -68,132 +56,36 @@
     <t>Understand the core Azure architectural components</t>
   </si>
   <si>
-    <t>describe the benefits and usage of core Azure architectural components</t>
-  </si>
-  <si>
     <t>Describe some of the core products available in Azure</t>
   </si>
   <si>
-    <t>describe products available for Compute such as Virtual Machines, Virtual Machine Scale Sets, App Service and Functions</t>
-  </si>
-  <si>
-    <t>describe products available for Networking such as Virtual Network, Load Balancer, VPN Gateway, Application Gateway and Content Delivery Network</t>
-  </si>
-  <si>
-    <t>describe products available for Storage such as Blob Storage, Disk Storage, File Storage, and Archive Storage</t>
-  </si>
-  <si>
-    <t>describe products available for Databases such as CosmosDB, Azure SQL Database, Azure Database Migration service, and Azure SQL Data Warehouse</t>
-  </si>
-  <si>
-    <t>describe the Azure Marketplace and its usage scenarios</t>
-  </si>
-  <si>
     <t>Describe some of the solutions available on Azure</t>
   </si>
   <si>
-    <t>describe Internet of Things (IoT) and products that are available for IoT on Azure such as IoT Fundamentals, IoT Hub and IoT Central</t>
-  </si>
-  <si>
-    <t>describe Big Data and Analytics and products that are available for Big Data and Analytics such as SQL Data Warehouse, HDInsight and Data Lake Analytics</t>
-  </si>
-  <si>
-    <t>describe Artificial Intelligence (AI) and products that are available for AI such as Azure Machine Learning Service and Studio</t>
-  </si>
-  <si>
-    <t>describe Serverless computing and Azure products that are available for serverless computing such as Azure Functions, Logic Apps and App grid</t>
-  </si>
-  <si>
-    <t>describe the benefits and outcomes of using Azure solutions</t>
-  </si>
-  <si>
     <t>Understand Azure management tools</t>
   </si>
   <si>
-    <t>understand Azure tools such as Azure CLI, PowerShell, and the Azure Portal</t>
-  </si>
-  <si>
-    <t>understand Azure Advisor</t>
-  </si>
-  <si>
     <t>Understand security, privacy, compliance, and trust</t>
   </si>
   <si>
     <t>Understand securing network connectivity in Azure</t>
   </si>
   <si>
-    <t>describe Azure Firewall</t>
-  </si>
-  <si>
-    <t>describe Azure DDoS Protection</t>
-  </si>
-  <si>
-    <t>describe Network Security Group (NSG)</t>
-  </si>
-  <si>
-    <t>choose an appropriate Azure security solution</t>
-  </si>
-  <si>
     <t>Describe core Azure identity services</t>
   </si>
   <si>
-    <t>understand the difference between authentication and authorization</t>
-  </si>
-  <si>
-    <t>describe Azure Active Directory</t>
-  </si>
-  <si>
-    <t>describe Azure Multi-Factor Authentication</t>
-  </si>
-  <si>
     <t>Describe security tools and features of Azure</t>
   </si>
   <si>
-    <t>describe Azure Security</t>
-  </si>
-  <si>
-    <t>understand Azure Security center usage scenarios</t>
-  </si>
-  <si>
-    <t>describe Key Vault</t>
-  </si>
-  <si>
-    <t>describe Azure Information Protection (AIP)</t>
-  </si>
-  <si>
-    <t>describe Azure Advanced Threat Protection (ATP)</t>
-  </si>
-  <si>
     <t>Describe Azure governance methodologies</t>
   </si>
   <si>
-    <t>describe Role-Based Access Control (RBAC)</t>
-  </si>
-  <si>
-    <t>describe Locks</t>
-  </si>
-  <si>
-    <t>describe Azure Advisor security assistance</t>
-  </si>
-  <si>
     <t>Understand monitoring and reporting options in Azure</t>
   </si>
   <si>
-    <t>understand the use cases and benefits of Azure Monitor and Azure Service Health</t>
-  </si>
-  <si>
     <t>Understand privacy, compliance and data protection standards in Azure</t>
   </si>
   <si>
-    <t>understand industry compliance terms such as GDPR, ISO and NIST</t>
-  </si>
-  <si>
-    <t>understand the Microsoft Privacy Statement</t>
-  </si>
-  <si>
-    <t>describe the Trust center</t>
-  </si>
-  <si>
     <t>determine if Azure is compliant for a business need</t>
   </si>
   <si>
@@ -206,66 +98,15 @@
     <t>Understand planning and management of costs</t>
   </si>
   <si>
-    <t>understand options for purchasing Azure products and services</t>
-  </si>
-  <si>
-    <t>understand options around Azure Free account</t>
-  </si>
-  <si>
-    <t>understand the factors affecting costs such as resource types, services, locations, ingress and egress traffic</t>
-  </si>
-  <si>
-    <t>understand Zones for billing purposes</t>
-  </si>
-  <si>
-    <t>understand the Pricing calculator</t>
-  </si>
-  <si>
-    <t>understand the Total Cost of Ownership (TCO) calculator</t>
-  </si>
-  <si>
-    <t>understand best practices for minimizing Azure costs such as performing cost analysis, creating spending limits and quotas, and using tags to identify cost owners; use Azure reservations; use Azure Advisor recommendations</t>
-  </si>
-  <si>
-    <t>describe Azure Cost Management</t>
-  </si>
-  <si>
     <t>Understand the support options available with Azure</t>
   </si>
   <si>
-    <t>understand support plans that are available such as Dev, Standard, Professional Direct and Premier</t>
-  </si>
-  <si>
-    <t>understand how to open a support ticket</t>
-  </si>
-  <si>
-    <t>understand available support channels outside of support plan channels</t>
-  </si>
-  <si>
-    <t>describe the Knowledge Center</t>
-  </si>
-  <si>
     <t>Describe Azure Service Level Agreements (SLAs)</t>
   </si>
   <si>
-    <t>describe a Service Level Agreement (SLA)</t>
-  </si>
-  <si>
-    <t>determine SLA for a particular Azure product or service</t>
-  </si>
-  <si>
     <t>Understand service lifecycle in Azure</t>
   </si>
   <si>
-    <t>monitor feature updates</t>
-  </si>
-  <si>
-    <t>describe Regions and availability zones</t>
-  </si>
-  <si>
-    <t>describe Azure Resource manager and resource groups</t>
-  </si>
-  <si>
     <t>Video count</t>
   </si>
   <si>
@@ -284,19 +125,178 @@
     <t>Date Recorded</t>
   </si>
   <si>
-    <t>describe Azure Policies and Initiatives</t>
-  </si>
-  <si>
-    <t>describe the Service Trust Portal and Compliance Manager</t>
-  </si>
-  <si>
-    <t>understand Azure Government services (US and Germany)</t>
-  </si>
-  <si>
-    <t>describe an Azure subscription along wit uses and options</t>
-  </si>
-  <si>
-    <t>understand Public and Private Preview features and how to access them + GA</t>
+    <t>Understand terms such as High Availability, Scalability, Elasticity, Agility, Fault Tolerance, and Disaster Recovery</t>
+  </si>
+  <si>
+    <t>Understand the principles of economies of scale</t>
+  </si>
+  <si>
+    <t>Understand the differences between Capital Expenditure (CapEx) and Operational Expenditure (OpEx)</t>
+  </si>
+  <si>
+    <t>Understand the consumption-based model</t>
+  </si>
+  <si>
+    <t>Understand Azure tools such as Azure CLI, PowerShell, and the Azure Portal</t>
+  </si>
+  <si>
+    <t>Understand Azure Advisor</t>
+  </si>
+  <si>
+    <t>Understand the difference between authentication and authorization</t>
+  </si>
+  <si>
+    <t>Understand Azure Security center usage scenarios</t>
+  </si>
+  <si>
+    <t>Understand the use cases and benefits of Azure Monitor and Azure Service Health</t>
+  </si>
+  <si>
+    <t>Understand industry compliance terms such as GDPR, ISO and NIST</t>
+  </si>
+  <si>
+    <t>Understand the Microsoft Privacy Statement</t>
+  </si>
+  <si>
+    <t>Understand options for purchasing Azure products and services</t>
+  </si>
+  <si>
+    <t>Understand options around Azure Free account</t>
+  </si>
+  <si>
+    <t>Understand the factors affecting costs such as resource types, services, locations, ingress and egress traffic</t>
+  </si>
+  <si>
+    <t>Understand Zones for billing purposes</t>
+  </si>
+  <si>
+    <t>Understand best practices for minimizing Azure costs such as performing cost analysis, creating spending limits and quotas, and using tags to identify cost owners; use Azure reservations; use Azure Advisor recommendations</t>
+  </si>
+  <si>
+    <t>Understand support plans that are available such as Dev, Standard, Professional Direct and Premier</t>
+  </si>
+  <si>
+    <t>Understand how to open a support ticket</t>
+  </si>
+  <si>
+    <t>Understand available support channels outside of support plan channels</t>
+  </si>
+  <si>
+    <t>Describe Azure Resource manager and resource groups</t>
+  </si>
+  <si>
+    <t>Describe the benefits and usage of core Azure architectural components</t>
+  </si>
+  <si>
+    <t>Describe products available for Compute such as Virtual Machines, Virtual Machine Scale Sets, App Service and Functions</t>
+  </si>
+  <si>
+    <t>Describe products available for Networking such as Virtual Network, Load Balancer, VPN Gateway, Application Gateway and Content Delivery Network</t>
+  </si>
+  <si>
+    <t>Describe products available for Storage such as Blob Storage, Disk Storage, File Storage, and Archive Storage</t>
+  </si>
+  <si>
+    <t>Describe the Azure Marketplace and its usage scenarios</t>
+  </si>
+  <si>
+    <t>Describe Internet of Things (IoT) and products that are available for IoT on Azure such as IoT Fundamentals, IoT Hub and IoT Central</t>
+  </si>
+  <si>
+    <t>Describe Big Data and Analytics and products that are available for Big Data and Analytics such as SQL Data Warehouse, HDInsight and Data Lake Analytics</t>
+  </si>
+  <si>
+    <t>Describe Artificial Intelligence (AI) and products that are available for AI such as Azure Machine Learning Service and Studio</t>
+  </si>
+  <si>
+    <t>Describe Serverless computing and Azure products that are available for serverless computing such as Azure Functions, Logic Apps and App grid</t>
+  </si>
+  <si>
+    <t>Describe the benefits and outcomes of using Azure solutions</t>
+  </si>
+  <si>
+    <t>Describe Azure Firewall</t>
+  </si>
+  <si>
+    <t>Describe Azure DDoS Protection</t>
+  </si>
+  <si>
+    <t>Describe Network Security Group (NSG)</t>
+  </si>
+  <si>
+    <t>Describe Azure Active Directory</t>
+  </si>
+  <si>
+    <t>Describe Azure Multi-Factor Authentication</t>
+  </si>
+  <si>
+    <t>Describe Azure Security</t>
+  </si>
+  <si>
+    <t>Describe Key Vault</t>
+  </si>
+  <si>
+    <t>Describe Azure Information Protection (AIP)</t>
+  </si>
+  <si>
+    <t>Describe Azure Advanced Threat Protection (ATP)</t>
+  </si>
+  <si>
+    <t>Describe Azure Policies and Initiatives</t>
+  </si>
+  <si>
+    <t>Describe Role-Based Access Control (RBAC)</t>
+  </si>
+  <si>
+    <t>Describe Locks</t>
+  </si>
+  <si>
+    <t>Describe Azure Advisor security assistance</t>
+  </si>
+  <si>
+    <t>Describe the Trust center</t>
+  </si>
+  <si>
+    <t>Describe the Service Trust Portal and Compliance Manager</t>
+  </si>
+  <si>
+    <t>Describe an Azure subscription along wit uses and options</t>
+  </si>
+  <si>
+    <t>Describe Azure Cost Management</t>
+  </si>
+  <si>
+    <t>Describe the Knowledge Center</t>
+  </si>
+  <si>
+    <t>Describe a Service Level Agreement (SLA)</t>
+  </si>
+  <si>
+    <t>Describe products available for Databases such as Cosmos DB, Azure SQL Database, Azure Database Migration service, and Azure SQL Data Warehouse</t>
+  </si>
+  <si>
+    <t>Understand the Azure Pricing Calculator</t>
+  </si>
+  <si>
+    <t>Understand the Total Cost of Ownership (TCO) Calculator</t>
+  </si>
+  <si>
+    <t>Understand Public and Private Preview, and GA features and how to access them</t>
+  </si>
+  <si>
+    <t>Determine SLA for a particular Azure product or service</t>
+  </si>
+  <si>
+    <t>Monitor feature updates</t>
+  </si>
+  <si>
+    <t>Choose an appropriate Azure security solution</t>
+  </si>
+  <si>
+    <t>Describe regions and availability zones</t>
+  </si>
+  <si>
+    <t>Understand US and Germany Azure Government services</t>
   </si>
 </sst>
 </file>
@@ -635,12 +635,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -653,19 +653,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -676,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -684,7 +684,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -692,7 +692,7 @@
     </row>
     <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -708,10 +708,10 @@
     </row>
     <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -719,10 +719,10 @@
     </row>
     <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -735,13 +735,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -765,10 +765,10 @@
     </row>
     <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -776,7 +776,7 @@
     </row>
     <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -784,15 +784,15 @@
     </row>
     <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -800,7 +800,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -808,10 +808,10 @@
     </row>
     <row r="17" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -827,7 +827,7 @@
     </row>
     <row r="19" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="20" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -843,7 +843,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -851,10 +851,10 @@
     </row>
     <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -862,26 +862,29 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D23">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="D24">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C25" s="1" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -889,7 +892,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -897,26 +900,26 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="D27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C28" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B29" s="1" t="s">
-        <v>34</v>
-      </c>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -924,26 +927,26 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="D30">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C31" s="1" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="D31">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -951,7 +954,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -959,7 +962,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -967,26 +970,26 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D35">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C36" s="1" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="D36">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C37" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -994,7 +997,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -1002,37 +1005,37 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="D39">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="C40" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B42" s="1" t="s">
-        <v>50</v>
-      </c>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1040,7 +1043,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -1048,7 +1051,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -1056,7 +1059,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -1064,56 +1067,56 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="D46">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C47" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D47">
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>55</v>
-      </c>
       <c r="B48" s="1" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="D48">
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B49" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="C49" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D49">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D50">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -1121,7 +1124,7 @@
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="D52">
         <v>51</v>
@@ -1129,112 +1132,104 @@
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D53">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="D54">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="2:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D55">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B56" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C56" s="1" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D56">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B57" s="1" t="s">
-        <v>66</v>
-      </c>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="D57">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D58">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D59">
         <v>58</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B60" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="C60" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D60">
         <v>59</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="C61" s="1" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D61">
         <v>60</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B62" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="C62" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D62">
         <v>61</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B63" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="C63" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D63">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C64" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D64">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>78</v>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
